--- a/Texts/Сюжетные сцены/Глава 18.xlsx
+++ b/Texts/Сюжетные сцены/Глава 18.xlsx
@@ -1602,9 +1602,6 @@
     <t xml:space="preserve"> Н-невероятно жестокий?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ей-боже, звучит страшновато!\nГлоть!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Эй, эй! [CS:N]Чатот[CR]!</t>
   </si>
   <si>
@@ -1752,12 +1749,6 @@
     <t xml:space="preserve"> Когда наступит подходящий\nмомент...</t>
   </si>
   <si>
-    <t xml:space="preserve"> ...мы схватим Фрагмент Реликвии\nэтого слабака [partner]!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...мы схватим Фрагмент Реликвии\nэтой слабачки [partner]!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> После этого, мы доберёмся до\nглубин пещеры.[K] Мы сами разгадаем эту\nзагадку.</t>
   </si>
   <si>
@@ -1794,9 +1785,6 @@
     <t xml:space="preserve"> Î-îåâåñïÿóîï çåòóïëéê?</t>
   </si>
   <si>
-    <t xml:space="preserve"> Åê-áïçå, èâôœéó òóñàšîïâàóï!\nÃìïóû!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Üê, üê! [CS:N]Œàóïó[CR]!</t>
   </si>
   <si>
@@ -1944,12 +1932,6 @@
     <t xml:space="preserve"> Ëïãäà îàòóôðéó ðïäöïäÿþéê\níïíåîó...</t>
   </si>
   <si>
-    <t xml:space="preserve"> ...íú òöâàóéí Õñàãíåîó Ñåìéëâéé\nüóïãï òìàáàëà [partner]!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ...íú òöâàóéí Õñàãíåîó Ñåìéëâéé\nüóïê òìàáàœëé [partner]!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Ðïòìå üóïãï, íú äïáåñæíòÿ äï\nãìôáéî ðåþåñú.[K] Íú òàíé ñàèãàäàåí üóô\nèàãàäëô.</t>
   </si>
   <si>
@@ -4846,6 +4828,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Âðåñæä![K] Èà íïñå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ей-богу, звучит страшновато!\nГлоть!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åê-áïãô, èâôœéó òóñàšîïâàóï!\nÃìïóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...мы схватим Фрагмент Реликвии\nэтого слабака!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...мы схватим Фрагмент Реликвии\nэтой слабачки!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...íú òöâàóéí Õñàãíåîó Ñåìéëâéé\nüóïê òìàáàœëé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ...íú òöâàóéí Õñàãíåîó Ñåìéëâéé\nüóïãï òìàáàëà!</t>
   </si>
 </sst>
 </file>
@@ -5615,8 +5615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H493"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D497" sqref="D497"/>
+    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E362" sqref="E362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7801,7 +7801,7 @@
         <v>521</v>
       </c>
       <c r="F129" s="31" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7819,7 +7819,7 @@
         <v>522</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7835,7 +7835,7 @@
         <v>523</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7851,7 +7851,7 @@
         <v>524</v>
       </c>
       <c r="F132" s="35" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7867,7 +7867,7 @@
         <v>525</v>
       </c>
       <c r="F133" s="35" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7885,7 +7885,7 @@
         <v>526</v>
       </c>
       <c r="F134" s="35" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -7898,10 +7898,10 @@
         <v>458</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>527</v>
+        <v>1603</v>
       </c>
       <c r="F135" s="35" t="s">
-        <v>591</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -7916,10 +7916,10 @@
         <v>459</v>
       </c>
       <c r="E136" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F136" s="35" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -7934,10 +7934,10 @@
         <v>460</v>
       </c>
       <c r="E137" s="34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F137" s="35" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7952,10 +7952,10 @@
         <v>461</v>
       </c>
       <c r="E138" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F138" s="35" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -7968,10 +7968,10 @@
         <v>462</v>
       </c>
       <c r="E139" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F139" s="35" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -7986,10 +7986,10 @@
         <v>463</v>
       </c>
       <c r="E140" s="34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F140" s="35" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8004,10 +8004,10 @@
         <v>464</v>
       </c>
       <c r="E141" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F141" s="35" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8020,10 +8020,10 @@
         <v>465</v>
       </c>
       <c r="E142" s="34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F142" s="35" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8036,10 +8036,10 @@
         <v>466</v>
       </c>
       <c r="E143" s="34" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F143" s="35" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -8052,10 +8052,10 @@
         <v>467</v>
       </c>
       <c r="E144" s="34" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F144" s="35" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -8068,10 +8068,10 @@
         <v>468</v>
       </c>
       <c r="E145" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F145" s="35" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8086,10 +8086,10 @@
         <v>469</v>
       </c>
       <c r="E146" s="34" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F146" s="35" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -8104,10 +8104,10 @@
         <v>470</v>
       </c>
       <c r="E147" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F147" s="35" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -8122,10 +8122,10 @@
         <v>471</v>
       </c>
       <c r="E148" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F148" s="35" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -8140,10 +8140,10 @@
         <v>472</v>
       </c>
       <c r="E149" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F149" s="35" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8156,10 +8156,10 @@
         <v>473</v>
       </c>
       <c r="E150" s="34" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F150" s="35" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8172,10 +8172,10 @@
         <v>474</v>
       </c>
       <c r="E151" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F151" s="35" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8188,10 +8188,10 @@
         <v>475</v>
       </c>
       <c r="E152" s="34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F152" s="35" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8204,10 +8204,10 @@
         <v>476</v>
       </c>
       <c r="E153" s="34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F153" s="35" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8220,10 +8220,10 @@
         <v>477</v>
       </c>
       <c r="E154" s="34" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F154" s="35" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -8238,10 +8238,10 @@
         <v>478</v>
       </c>
       <c r="E155" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F155" s="35" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8256,10 +8256,10 @@
         <v>479</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F156" s="35" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -8272,10 +8272,10 @@
         <v>480</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F157" s="35" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -8288,10 +8288,10 @@
         <v>482</v>
       </c>
       <c r="E158" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F158" s="35" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8304,10 +8304,10 @@
         <v>484</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F159" s="35" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -8322,10 +8322,10 @@
         <v>486</v>
       </c>
       <c r="E160" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F160" s="35" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8338,10 +8338,10 @@
         <v>487</v>
       </c>
       <c r="E161" s="34" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F161" s="35" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8354,10 +8354,10 @@
         <v>488</v>
       </c>
       <c r="E162" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F162" s="35" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8370,10 +8370,10 @@
         <v>489</v>
       </c>
       <c r="E163" s="34" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F163" s="35" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -8388,10 +8388,10 @@
         <v>490</v>
       </c>
       <c r="E164" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F164" s="35" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -8404,10 +8404,10 @@
         <v>491</v>
       </c>
       <c r="E165" s="34" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F165" s="35" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8422,10 +8422,10 @@
         <v>492</v>
       </c>
       <c r="E166" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F166" s="35" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8438,10 +8438,10 @@
         <v>493</v>
       </c>
       <c r="E167" s="34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F167" s="35" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8456,10 +8456,10 @@
         <v>494</v>
       </c>
       <c r="E168" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F168" s="35" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -8490,10 +8490,10 @@
         <v>495</v>
       </c>
       <c r="E170" s="34" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F170" s="35" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -8508,10 +8508,10 @@
         <v>496</v>
       </c>
       <c r="E171" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F171" s="35" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8526,10 +8526,10 @@
         <v>497</v>
       </c>
       <c r="E172" s="34" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F172" s="35" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -8544,10 +8544,10 @@
         <v>498</v>
       </c>
       <c r="E173" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F173" s="35" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8560,10 +8560,10 @@
         <v>499</v>
       </c>
       <c r="E174" s="34" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F174" s="35" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8576,10 +8576,10 @@
         <v>500</v>
       </c>
       <c r="E175" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F175" s="35" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -8592,10 +8592,10 @@
         <v>501</v>
       </c>
       <c r="E176" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F176" s="35" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8608,10 +8608,10 @@
         <v>502</v>
       </c>
       <c r="E177" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F177" s="35" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8624,10 +8624,10 @@
         <v>503</v>
       </c>
       <c r="E178" s="34" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F178" s="35" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8640,10 +8640,10 @@
         <v>504</v>
       </c>
       <c r="E179" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F179" s="35" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -8656,10 +8656,10 @@
         <v>505</v>
       </c>
       <c r="E180" s="34" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F180" s="35" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8674,10 +8674,10 @@
         <v>507</v>
       </c>
       <c r="E181" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F181" s="35" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -8690,10 +8690,10 @@
         <v>508</v>
       </c>
       <c r="E182" s="34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F182" s="35" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -8726,10 +8726,10 @@
         <v>509</v>
       </c>
       <c r="E184" s="34" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F184" s="35" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8744,10 +8744,10 @@
         <v>510</v>
       </c>
       <c r="E185" s="34" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F185" s="35" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8762,10 +8762,10 @@
         <v>511</v>
       </c>
       <c r="E186" s="34" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F186" s="35" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8778,10 +8778,10 @@
         <v>512</v>
       </c>
       <c r="E187" s="34" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F187" s="35" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8794,10 +8794,10 @@
         <v>513</v>
       </c>
       <c r="E188" s="34" t="s">
-        <v>577</v>
+        <v>1605</v>
       </c>
       <c r="F188" s="35" t="s">
-        <v>641</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8810,10 +8810,10 @@
         <v>513</v>
       </c>
       <c r="E189" s="34" t="s">
-        <v>578</v>
+        <v>1606</v>
       </c>
       <c r="F189" s="35" t="s">
-        <v>642</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -8826,10 +8826,10 @@
         <v>514</v>
       </c>
       <c r="E190" s="34" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F190" s="35" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -8844,10 +8844,10 @@
         <v>516</v>
       </c>
       <c r="E191" s="34" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F191" s="35" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -8862,10 +8862,10 @@
         <v>517</v>
       </c>
       <c r="E192" s="34" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F192" s="35" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -8878,10 +8878,10 @@
         <v>518</v>
       </c>
       <c r="E193" s="34" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F193" s="35" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -8894,10 +8894,10 @@
         <v>519</v>
       </c>
       <c r="E194" s="34" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F194" s="35" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -8948,46 +8948,46 @@
         <v>520</v>
       </c>
       <c r="E197" s="18" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F197" s="39" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="60" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B198" s="37" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D198" s="34" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="E198" s="34" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F198" s="35" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="32"/>
       <c r="B199" s="37"/>
       <c r="C199" s="33" t="s">
+        <v>650</v>
+      </c>
+      <c r="D199" s="34" t="s">
+        <v>649</v>
+      </c>
+      <c r="E199" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="D199" s="34" t="s">
-        <v>655</v>
-      </c>
-      <c r="E199" s="34" t="s">
-        <v>662</v>
-      </c>
       <c r="F199" s="35" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -8999,13 +8999,13 @@
         <v>94</v>
       </c>
       <c r="D200" s="34" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E200" s="34" t="s">
         <v>522</v>
       </c>
       <c r="F200" s="35" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -9015,13 +9015,13 @@
         <v>97</v>
       </c>
       <c r="D201" s="34" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E201" s="34" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F201" s="35" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9031,13 +9031,13 @@
         <v>113</v>
       </c>
       <c r="D202" s="34" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="E202" s="34" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="F202" s="35" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9047,31 +9047,31 @@
         <v>116</v>
       </c>
       <c r="D203" s="18" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E203" s="18" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F203" s="39" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="32"/>
       <c r="B204" s="37" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C204" s="47">
         <v>25</v>
       </c>
       <c r="D204" s="34" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E204" s="34" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F204" s="35" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -9081,13 +9081,13 @@
         <v>29</v>
       </c>
       <c r="D205" s="34" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E205" s="34" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F205" s="35" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -9095,29 +9095,29 @@
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
       <c r="D206" s="34" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E206" s="34" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F206" s="35" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="32"/>
       <c r="B207" s="37"/>
       <c r="C207" s="33" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D207" s="34" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E207" s="34" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F207" s="35" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -9129,13 +9129,13 @@
         <v>80</v>
       </c>
       <c r="D208" s="34" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E208" s="34" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F208" s="35" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -9145,81 +9145,81 @@
         <v>100</v>
       </c>
       <c r="D209" s="34" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="E209" s="34" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F209" s="35" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="32"/>
       <c r="B210" s="37"/>
       <c r="C210" s="33" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D210" s="34" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E210" s="34" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="F210" s="35" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A211" s="62"/>
       <c r="B211" s="63"/>
       <c r="C211" s="54" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D211" s="55" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="E211" s="55" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F211" s="56" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A212" s="64" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B212" s="65" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D212" s="30" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E212" s="30" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="F212" s="31" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A213" s="32"/>
       <c r="B213" s="37"/>
       <c r="C213" s="33" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D213" s="34" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E213" s="34" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="F213" s="35" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -9231,13 +9231,13 @@
         <v>76</v>
       </c>
       <c r="D214" s="34" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E214" s="34" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="F214" s="35" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9247,13 +9247,13 @@
         <v>79</v>
       </c>
       <c r="D215" s="34" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E215" s="34" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="F215" s="35" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9263,61 +9263,61 @@
         <v>82</v>
       </c>
       <c r="D216" s="34" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E216" s="34" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="F216" s="35" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A217" s="32"/>
       <c r="B217" s="37"/>
       <c r="C217" s="33" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="D217" s="34" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E217" s="34" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="F217" s="35" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A218" s="32"/>
       <c r="B218" s="37"/>
       <c r="C218" s="33" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="D218" s="34" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="E218" s="34" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="F218" s="35" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="32"/>
       <c r="B219" s="37"/>
       <c r="C219" s="33" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="D219" s="34" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E219" s="34" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F219" s="35" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -9329,29 +9329,29 @@
         <v>188</v>
       </c>
       <c r="D220" s="34" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="E220" s="34" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="F220" s="35" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="32"/>
       <c r="B221" s="37"/>
       <c r="C221" s="33" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D221" s="34" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E221" s="34" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F221" s="35" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9363,13 +9363,13 @@
         <v>242</v>
       </c>
       <c r="D222" s="34" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E222" s="34" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="F222" s="35" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -9381,13 +9381,13 @@
         <v>247</v>
       </c>
       <c r="D223" s="34" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E223" s="34" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="F223" s="35" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -9399,29 +9399,29 @@
         <v>252</v>
       </c>
       <c r="D224" s="34" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E224" s="34" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="F224" s="35" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="32"/>
       <c r="B225" s="37"/>
       <c r="C225" s="33" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D225" s="34" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="E225" s="34" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F225" s="35" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -9433,29 +9433,29 @@
         <v>303</v>
       </c>
       <c r="D226" s="34" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E226" s="34" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F226" s="35" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="32"/>
       <c r="B227" s="37"/>
       <c r="C227" s="33" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D227" s="34" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E227" s="34" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="F227" s="35" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9467,13 +9467,13 @@
         <v>337</v>
       </c>
       <c r="D228" s="34" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E228" s="34" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="F228" s="35" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9485,13 +9485,13 @@
         <v>342</v>
       </c>
       <c r="D229" s="34" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E229" s="34" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="F229" s="35" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9503,13 +9503,13 @@
         <v>354</v>
       </c>
       <c r="D230" s="34" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E230" s="34" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="F230" s="35" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -9519,13 +9519,13 @@
         <v>357</v>
       </c>
       <c r="D231" s="34" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E231" s="34" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="F231" s="35" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -9535,13 +9535,13 @@
         <v>360</v>
       </c>
       <c r="D232" s="34" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E232" s="34" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="F232" s="35" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -9551,13 +9551,13 @@
         <v>363</v>
       </c>
       <c r="D233" s="34" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="E233" s="34" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="F233" s="35" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -9569,13 +9569,13 @@
         <v>368</v>
       </c>
       <c r="D234" s="34" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E234" s="34" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="F234" s="35" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -9585,13 +9585,13 @@
         <v>371</v>
       </c>
       <c r="D235" s="34" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="E235" s="34" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="F235" s="35" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -9603,13 +9603,13 @@
         <v>383</v>
       </c>
       <c r="D236" s="34" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E236" s="34" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="F236" s="35" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9619,61 +9619,61 @@
         <v>386</v>
       </c>
       <c r="D237" s="34" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="E237" s="34" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="F237" s="35" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="32"/>
       <c r="B238" s="37"/>
       <c r="C238" s="33" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D238" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E238" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F238" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A239" s="32"/>
       <c r="B239" s="37"/>
       <c r="C239" s="33" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D239" s="34" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="E239" s="34" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="F239" s="35" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A240" s="32"/>
       <c r="B240" s="37"/>
       <c r="C240" s="33" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D240" s="34" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="E240" s="34" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="F240" s="35" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
@@ -9685,13 +9685,13 @@
         <v>460</v>
       </c>
       <c r="D241" s="34" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E241" s="34" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="F241" s="35" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -9703,13 +9703,13 @@
         <v>465</v>
       </c>
       <c r="D242" s="34" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E242" s="34" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="F242" s="35" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9721,13 +9721,13 @@
         <v>470</v>
       </c>
       <c r="D243" s="34" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E243" s="34" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F243" s="35" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9739,13 +9739,13 @@
         <v>475</v>
       </c>
       <c r="D244" s="34" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E244" s="34" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="F244" s="35" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9755,13 +9755,13 @@
         <v>478</v>
       </c>
       <c r="D245" s="34" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E245" s="34" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="F245" s="35" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9771,13 +9771,13 @@
         <v>481</v>
       </c>
       <c r="D246" s="34" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E246" s="34" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="F246" s="35" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -9789,13 +9789,13 @@
         <v>564</v>
       </c>
       <c r="D247" s="34" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E247" s="34" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F247" s="35" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9805,13 +9805,13 @@
         <v>567</v>
       </c>
       <c r="D248" s="34" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E248" s="34" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="F248" s="35" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9821,13 +9821,13 @@
         <v>585</v>
       </c>
       <c r="D249" s="34" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E249" s="34" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="F249" s="35" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -9837,197 +9837,197 @@
         <v>588</v>
       </c>
       <c r="D250" s="34" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E250" s="34" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="F250" s="35" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="32"/>
       <c r="B251" s="37"/>
       <c r="C251" s="33" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D251" s="34" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E251" s="34" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="F251" s="35" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="32"/>
       <c r="B252" s="37"/>
       <c r="C252" s="33" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="D252" s="34" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E252" s="34" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="F252" s="35" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A253" s="32"/>
       <c r="B253" s="37"/>
       <c r="C253" s="33" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D253" s="34" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E253" s="34" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F253" s="35" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A254" s="32"/>
       <c r="B254" s="37"/>
       <c r="C254" s="33" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="D254" s="34" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E254" s="34" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="F254" s="35" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A255" s="32"/>
       <c r="B255" s="37"/>
       <c r="C255" s="33" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D255" s="34" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E255" s="34" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F255" s="35" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="38"/>
       <c r="B256" s="16"/>
       <c r="C256" s="17" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="D256" s="18" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E256" s="18" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="F256" s="39" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A257" s="60" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B257" s="37" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="D257" s="34" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="E257" s="34" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F257" s="35" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="32"/>
       <c r="B258" s="37" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C258" s="33" t="s">
+        <v>845</v>
+      </c>
+      <c r="D258" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="E258" s="34" t="s">
         <v>851</v>
       </c>
-      <c r="D258" s="34" t="s">
-        <v>850</v>
-      </c>
-      <c r="E258" s="34" t="s">
-        <v>857</v>
-      </c>
       <c r="F258" s="35" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A259" s="32"/>
       <c r="B259" s="37"/>
       <c r="C259" s="33" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D259" s="34" t="s">
+        <v>846</v>
+      </c>
+      <c r="E259" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="E259" s="34" t="s">
-        <v>858</v>
-      </c>
       <c r="F259" s="35" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="38"/>
       <c r="B260" s="16"/>
       <c r="C260" s="17" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="D260" s="18" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="E260" s="18" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="F260" s="39" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="61"/>
       <c r="B261" s="58" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C261" s="33">
         <v>19</v>
       </c>
       <c r="D261" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="E261" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="F261" s="35" t="s">
         <v>864</v>
-      </c>
-      <c r="E261" s="34" t="s">
-        <v>868</v>
-      </c>
-      <c r="F261" s="35" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -10037,13 +10037,13 @@
         <v>23</v>
       </c>
       <c r="D262" s="34" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="E262" s="34" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="F262" s="35" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10053,63 +10053,63 @@
         <v>42</v>
       </c>
       <c r="D263" s="55" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="E263" s="55" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="F263" s="56" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A264" s="64" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B264" s="65"/>
       <c r="C264" s="29" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D264" s="30" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="E264" s="30" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="F264" s="31" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A265" s="32"/>
       <c r="B265" s="37"/>
       <c r="C265" s="33" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D265" s="34" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="E265" s="34" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F265" s="35" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A266" s="32"/>
       <c r="B266" s="37"/>
       <c r="C266" s="33" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D266" s="34" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="E266" s="34" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="F266" s="35" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -10119,29 +10119,29 @@
         <v>90</v>
       </c>
       <c r="D267" s="34" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E267" s="34" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="F267" s="35" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="32"/>
       <c r="B268" s="33"/>
       <c r="C268" s="33" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="D268" s="34" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E268" s="34" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="F268" s="35" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -10151,45 +10151,45 @@
         <v>117</v>
       </c>
       <c r="D269" s="34" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E269" s="34" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="F269" s="35" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="32"/>
       <c r="B270" s="37"/>
       <c r="C270" s="33" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="D270" s="34" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E270" s="34" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="F270" s="35" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="32"/>
       <c r="B271" s="37"/>
       <c r="C271" s="33" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="D271" s="34" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E271" s="34" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="F271" s="35" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -10201,45 +10201,45 @@
         <v>187</v>
       </c>
       <c r="D272" s="34" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E272" s="34" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="F272" s="35" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="32"/>
       <c r="B273" s="37"/>
       <c r="C273" s="33" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="D273" s="34" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E273" s="34" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="F273" s="35" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A274" s="32"/>
       <c r="B274" s="37"/>
       <c r="C274" s="33" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D274" s="34" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E274" s="34" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F274" s="35" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10251,13 +10251,13 @@
         <v>240</v>
       </c>
       <c r="D275" s="34" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E275" s="34" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="F275" s="35" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10267,29 +10267,29 @@
         <v>245</v>
       </c>
       <c r="D276" s="34" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E276" s="34" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="F276" s="35" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="32"/>
       <c r="B277" s="37"/>
       <c r="C277" s="33" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="D277" s="34" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E277" s="34" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="F277" s="35" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10301,13 +10301,13 @@
         <v>266</v>
       </c>
       <c r="D278" s="34" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E278" s="34" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="F278" s="35" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10317,29 +10317,29 @@
         <v>269</v>
       </c>
       <c r="D279" s="34" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E279" s="34" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="F279" s="35" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A280" s="32"/>
       <c r="B280" s="37"/>
       <c r="C280" s="33" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="D280" s="34" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E280" s="34" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="F280" s="35" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10351,13 +10351,13 @@
         <v>290</v>
       </c>
       <c r="D281" s="34" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E281" s="34" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="F281" s="35" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10367,29 +10367,29 @@
         <v>293</v>
       </c>
       <c r="D282" s="34" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E282" s="34" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F282" s="35" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="32"/>
       <c r="B283" s="37"/>
       <c r="C283" s="33" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="D283" s="34" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E283" s="34" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F283" s="35" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
@@ -10401,13 +10401,13 @@
         <v>326</v>
       </c>
       <c r="D284" s="34" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E284" s="34" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="F284" s="35" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10417,13 +10417,13 @@
         <v>329</v>
       </c>
       <c r="D285" s="34" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E285" s="34" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="F285" s="35" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
@@ -10433,13 +10433,13 @@
         <v>332</v>
       </c>
       <c r="D286" s="34" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E286" s="34" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="F286" s="35" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10449,13 +10449,13 @@
         <v>335</v>
       </c>
       <c r="D287" s="34" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E287" s="34" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="F287" s="35" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10465,13 +10465,13 @@
         <v>338</v>
       </c>
       <c r="D288" s="34" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E288" s="34" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="F288" s="35" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10481,13 +10481,13 @@
         <v>341</v>
       </c>
       <c r="D289" s="34" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E289" s="34" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="F289" s="35" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10497,13 +10497,13 @@
         <v>344</v>
       </c>
       <c r="D290" s="34" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E290" s="34" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="F290" s="35" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10513,13 +10513,13 @@
         <v>347</v>
       </c>
       <c r="D291" s="34" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E291" s="34" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="F291" s="35" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
@@ -10529,13 +10529,13 @@
         <v>350</v>
       </c>
       <c r="D292" s="34" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E292" s="34" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="F292" s="35" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -10545,45 +10545,45 @@
         <v>353</v>
       </c>
       <c r="D293" s="34" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E293" s="34" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="F293" s="35" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A294" s="32"/>
       <c r="B294" s="37"/>
       <c r="C294" s="33" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="D294" s="34" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E294" s="34" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="F294" s="35" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A295" s="32"/>
       <c r="B295" s="37"/>
       <c r="C295" s="33" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D295" s="34" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E295" s="34" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="F295" s="35" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10595,13 +10595,13 @@
         <v>389</v>
       </c>
       <c r="D296" s="34" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="E296" s="34" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="F296" s="35" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10611,13 +10611,13 @@
         <v>392</v>
       </c>
       <c r="D297" s="34" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="E297" s="34" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="F297" s="35" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10627,45 +10627,45 @@
         <v>395</v>
       </c>
       <c r="D298" s="34" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="E298" s="34" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="F298" s="35" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A299" s="32"/>
       <c r="B299" s="37"/>
       <c r="C299" s="33" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="D299" s="34" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="E299" s="34" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="F299" s="35" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A300" s="32"/>
       <c r="B300" s="37"/>
       <c r="C300" s="33" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D300" s="34" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="E300" s="34" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F300" s="35" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
@@ -10677,29 +10677,29 @@
         <v>430</v>
       </c>
       <c r="D301" s="34" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="E301" s="34" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="F301" s="35" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="32"/>
       <c r="B302" s="37"/>
       <c r="C302" s="33" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D302" s="34" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="E302" s="34" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F302" s="35" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10711,13 +10711,13 @@
         <v>482</v>
       </c>
       <c r="D303" s="34" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="E303" s="34" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="F303" s="35" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10727,13 +10727,13 @@
         <v>485</v>
       </c>
       <c r="D304" s="34" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="E304" s="34" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="F304" s="35" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
@@ -10743,13 +10743,13 @@
         <v>488</v>
       </c>
       <c r="D305" s="34" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="E305" s="34" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="F305" s="35" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10759,29 +10759,29 @@
         <v>491</v>
       </c>
       <c r="D306" s="34" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="E306" s="34" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="F306" s="35" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="32"/>
       <c r="B307" s="37"/>
       <c r="C307" s="33" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="D307" s="34" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="E307" s="34" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="F307" s="35" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10793,13 +10793,13 @@
         <v>512</v>
       </c>
       <c r="D308" s="34" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="E308" s="34" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="F308" s="35" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10809,29 +10809,29 @@
         <v>515</v>
       </c>
       <c r="D309" s="34" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="E309" s="34" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="F309" s="35" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="32"/>
       <c r="B310" s="37"/>
       <c r="C310" s="33" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="D310" s="34" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="E310" s="34" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="F310" s="35" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
@@ -10843,13 +10843,13 @@
         <v>536</v>
       </c>
       <c r="D311" s="34" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="E311" s="34" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="F311" s="35" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -10859,13 +10859,13 @@
         <v>539</v>
       </c>
       <c r="D312" s="34" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="E312" s="34" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="F312" s="35" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10875,13 +10875,13 @@
         <v>542</v>
       </c>
       <c r="D313" s="34" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="E313" s="34" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="F313" s="35" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10891,29 +10891,29 @@
         <v>545</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="E314" s="34" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="F314" s="35" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A315" s="32"/>
       <c r="B315" s="37"/>
       <c r="C315" s="33" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="D315" s="34" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="E315" s="34" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="F315" s="35" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -10925,13 +10925,13 @@
         <v>575</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E316" s="34" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="F316" s="35" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
@@ -10941,61 +10941,61 @@
         <v>578</v>
       </c>
       <c r="D317" s="34" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="E317" s="34" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="F317" s="35" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="32"/>
       <c r="B318" s="37"/>
       <c r="C318" s="33" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D318" s="34" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="E318" s="34" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="F318" s="35" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="32"/>
       <c r="B319" s="37"/>
       <c r="C319" s="33" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="D319" s="34" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="E319" s="34" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="F319" s="35" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A320" s="32"/>
       <c r="B320" s="37"/>
       <c r="C320" s="33" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D320" s="34" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="E320" s="34" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="F320" s="35" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11007,29 +11007,29 @@
         <v>638</v>
       </c>
       <c r="D321" s="34" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="E321" s="34" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="F321" s="35" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="32"/>
       <c r="B322" s="37"/>
       <c r="C322" s="33" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D322" s="34" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E322" s="34" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F322" s="35" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -11041,13 +11041,13 @@
         <v>681</v>
       </c>
       <c r="D323" s="34" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="E323" s="34" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="F323" s="35" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
@@ -11059,13 +11059,13 @@
         <v>686</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="E324" s="34" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="F324" s="35" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11077,13 +11077,13 @@
         <v>691</v>
       </c>
       <c r="D325" s="34" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="E325" s="34" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F325" s="35" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -11095,13 +11095,13 @@
         <v>696</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="E326" s="34" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="F326" s="35" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11111,13 +11111,13 @@
         <v>699</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="E327" s="34" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F327" s="35" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
@@ -11129,13 +11129,13 @@
         <v>704</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E328" s="34" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="F328" s="35" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11145,13 +11145,13 @@
         <v>707</v>
       </c>
       <c r="D329" s="34" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="E329" s="34" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F329" s="35" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11161,13 +11161,13 @@
         <v>710</v>
       </c>
       <c r="D330" s="34" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="E330" s="34" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F330" s="35" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
@@ -11179,13 +11179,13 @@
         <v>715</v>
       </c>
       <c r="D331" s="34" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="E331" s="34" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="F331" s="35" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11197,13 +11197,13 @@
         <v>720</v>
       </c>
       <c r="D332" s="34" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="E332" s="34" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="F332" s="35" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11213,33 +11213,33 @@
         <v>725</v>
       </c>
       <c r="D333" s="55" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="E333" s="55" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F333" s="56" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A334" s="64" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="B334" s="65" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="C334" s="29" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="D334" s="30" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="E334" s="30" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="F334" s="31" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -11251,13 +11251,13 @@
         <v>48</v>
       </c>
       <c r="D335" s="34" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="E335" s="34" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="F335" s="35" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
@@ -11267,13 +11267,13 @@
         <v>51</v>
       </c>
       <c r="D336" s="34" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="E336" s="34" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
       <c r="F336" s="35" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="337" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11283,13 +11283,13 @@
         <v>54</v>
       </c>
       <c r="D337" s="34" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E337" s="34" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="F337" s="35" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11299,13 +11299,13 @@
         <v>57</v>
       </c>
       <c r="D338" s="34" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="E338" s="34" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="F338" s="35" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
@@ -11315,29 +11315,29 @@
         <v>60</v>
       </c>
       <c r="D339" s="34" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="E339" s="34" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F339" s="35" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A340" s="32"/>
       <c r="B340" s="37"/>
       <c r="C340" s="33" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="D340" s="34" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E340" s="34" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="F340" s="35" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -11349,13 +11349,13 @@
         <v>126</v>
       </c>
       <c r="D341" s="34" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="E341" s="34" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="F341" s="35" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
@@ -11365,29 +11365,29 @@
         <v>129</v>
       </c>
       <c r="D342" s="34" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E342" s="34" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="F342" s="35" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="32"/>
       <c r="B343" s="37"/>
       <c r="C343" s="33" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D343" s="34" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="E343" s="34" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="F343" s="35" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -11399,13 +11399,13 @@
         <v>153</v>
       </c>
       <c r="D344" s="34" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E344" s="34" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="F344" s="35" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -11415,13 +11415,13 @@
         <v>165</v>
       </c>
       <c r="D345" s="34" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="E345" s="34" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="F345" s="35" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11431,13 +11431,13 @@
         <v>168</v>
       </c>
       <c r="D346" s="34" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="E346" s="34" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="F346" s="35" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11447,13 +11447,13 @@
         <v>171</v>
       </c>
       <c r="D347" s="34" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="E347" s="34" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="F347" s="35" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11463,13 +11463,13 @@
         <v>174</v>
       </c>
       <c r="D348" s="18" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="E348" s="18" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
       <c r="F348" s="39" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -11477,19 +11477,19 @@
         <v>304</v>
       </c>
       <c r="B349" s="33" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C349" s="33">
         <v>19</v>
       </c>
       <c r="D349" s="34" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E349" s="34" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="F349" s="35" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
@@ -11499,115 +11499,115 @@
         <v>22</v>
       </c>
       <c r="D350" s="34" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="E350" s="34" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
       <c r="F350" s="35" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="32"/>
       <c r="B351" s="37"/>
       <c r="C351" s="33" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="D351" s="34" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="E351" s="34" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="F351" s="35" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="32"/>
       <c r="B352" s="37"/>
       <c r="C352" s="33" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="D352" s="34" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="E352" s="34" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="F352" s="35" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B353" s="33"/>
       <c r="C353" s="33">
         <v>205</v>
       </c>
       <c r="D353" s="34" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="E353" s="34" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
       <c r="F353" s="35" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="52" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B354" s="33"/>
       <c r="C354" s="33">
         <v>252</v>
       </c>
       <c r="D354" s="34" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="E354" s="34" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="F354" s="35" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="355" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A355" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B355" s="33"/>
       <c r="C355" s="33">
         <v>257</v>
       </c>
       <c r="D355" s="34" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="E355" s="34" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="F355" s="35" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="32"/>
       <c r="B356" s="37"/>
       <c r="C356" s="33" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="D356" s="34" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
       <c r="E356" s="34" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="F356" s="35" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
@@ -11619,47 +11619,47 @@
         <v>322</v>
       </c>
       <c r="D357" s="34" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="E357" s="34" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F357" s="35" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="32"/>
       <c r="B358" s="37"/>
       <c r="C358" s="33" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="D358" s="34" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
       <c r="E358" s="34" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="F358" s="35" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B359" s="33"/>
       <c r="C359" s="33">
         <v>354</v>
       </c>
       <c r="D359" s="34" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="E359" s="34" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="F359" s="35" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11671,31 +11671,31 @@
         <v>360</v>
       </c>
       <c r="D360" s="34" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
       <c r="E360" s="34" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="F360" s="35" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="361" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A361" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B361" s="33"/>
       <c r="C361" s="33">
         <v>365</v>
       </c>
       <c r="D361" s="34" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="E361" s="34" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="F361" s="35" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -11705,31 +11705,31 @@
         <v>368</v>
       </c>
       <c r="D362" s="34" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="E362" s="34" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
       <c r="F362" s="35" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="52" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B363" s="33"/>
       <c r="C363" s="33">
         <v>380</v>
       </c>
       <c r="D363" s="34" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="E363" s="34" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="F363" s="35" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="364" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11739,13 +11739,13 @@
         <v>388</v>
       </c>
       <c r="D364" s="34" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="E364" s="34" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="F364" s="35" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -11755,31 +11755,31 @@
         <v>391</v>
       </c>
       <c r="D365" s="34" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="E365" s="34" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
       <c r="F365" s="35" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="366" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A366" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B366" s="33"/>
       <c r="C366" s="33">
         <v>399</v>
       </c>
       <c r="D366" s="34" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="E366" s="34" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="F366" s="35" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -11789,13 +11789,13 @@
         <v>402</v>
       </c>
       <c r="D367" s="34" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="E367" s="34" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="F367" s="35" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="368" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11807,13 +11807,13 @@
         <v>407</v>
       </c>
       <c r="D368" s="34" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E368" s="34" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="F368" s="35" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -11823,13 +11823,13 @@
         <v>410</v>
       </c>
       <c r="D369" s="34" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
       <c r="E369" s="34" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F369" s="35" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -11839,13 +11839,13 @@
         <v>413</v>
       </c>
       <c r="D370" s="34" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="E370" s="34" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="F370" s="35" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -11855,13 +11855,13 @@
         <v>152</v>
       </c>
       <c r="D371" s="34" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E371" s="34" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
       <c r="F371" s="35" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -11873,47 +11873,47 @@
         <v>434</v>
       </c>
       <c r="D372" s="34" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="E372" s="34" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="F372" s="35" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="32"/>
       <c r="B373" s="37"/>
       <c r="C373" s="33" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
       <c r="D373" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E373" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F373" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B374" s="33"/>
       <c r="C374" s="33">
         <v>480</v>
       </c>
       <c r="D374" s="34" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="E374" s="34" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="F374" s="35" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
@@ -11923,13 +11923,13 @@
         <v>483</v>
       </c>
       <c r="D375" s="34" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="E375" s="34" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
       <c r="F375" s="35" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
@@ -11939,51 +11939,51 @@
         <v>486</v>
       </c>
       <c r="D376" s="18" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="E376" s="18" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="F376" s="39" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A377" s="68" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B377" s="33" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C377" s="33">
         <v>19</v>
       </c>
       <c r="D377" s="34" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E377" s="34" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F377" s="35" t="s">
         <v>1240</v>
-      </c>
-      <c r="E377" s="34" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F377" s="35" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A378" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B378" s="33"/>
       <c r="C378" s="33">
         <v>22</v>
       </c>
       <c r="D378" s="34" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E378" s="34" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F378" s="35" t="s">
         <v>1241</v>
-      </c>
-      <c r="E378" s="34" t="s">
-        <v>1244</v>
-      </c>
-      <c r="F378" s="35" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -11993,13 +11993,13 @@
         <v>25</v>
       </c>
       <c r="D379" s="34" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E379" s="34" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F379" s="35" t="s">
         <v>1242</v>
-      </c>
-      <c r="E379" s="34" t="s">
-        <v>1245</v>
-      </c>
-      <c r="F379" s="35" t="s">
-        <v>1248</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12009,85 +12009,85 @@
         <v>28</v>
       </c>
       <c r="D380" s="55" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="E380" s="55" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
       <c r="F380" s="56" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A381" s="57" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="B381" s="29" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="C381" s="29">
         <v>51</v>
       </c>
       <c r="D381" s="30" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="E381" s="30" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="F381" s="31" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="52" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B382" s="33"/>
       <c r="C382" s="33">
         <v>60</v>
       </c>
       <c r="D382" s="34" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E382" s="34" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="F382" s="35" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="52" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="B383" s="33"/>
       <c r="C383" s="33">
         <v>73</v>
       </c>
       <c r="D383" s="34" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="E383" s="34" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="F383" s="35" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="32"/>
       <c r="B384" s="37"/>
       <c r="C384" s="33" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="D384" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E384" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F384" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.3">
@@ -12099,29 +12099,29 @@
         <v>149</v>
       </c>
       <c r="D385" s="34" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="E385" s="34" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F385" s="35" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A386" s="32"/>
       <c r="B386" s="37"/>
       <c r="C386" s="33" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="D386" s="34" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E386" s="34" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="F386" s="35" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.3">
@@ -12133,13 +12133,13 @@
         <v>174</v>
       </c>
       <c r="D387" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E387" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F387" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.3">
@@ -12151,29 +12151,29 @@
         <v>217</v>
       </c>
       <c r="D388" s="34" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="E388" s="34" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="F388" s="35" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A389" s="32"/>
       <c r="B389" s="37"/>
       <c r="C389" s="33" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="D389" s="34" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="E389" s="34" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="F389" s="35" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.3">
@@ -12185,13 +12185,13 @@
         <v>257</v>
       </c>
       <c r="D390" s="34" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="E390" s="34" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="F390" s="35" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.3">
@@ -12201,13 +12201,13 @@
         <v>365</v>
       </c>
       <c r="D391" s="34" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="E391" s="34" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="F391" s="35" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12219,13 +12219,13 @@
         <v>405</v>
       </c>
       <c r="D392" s="34" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E392" s="34" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="F392" s="35" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12237,13 +12237,13 @@
         <v>415</v>
       </c>
       <c r="D393" s="34" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="E393" s="34" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="F393" s="35" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.3">
@@ -12253,13 +12253,13 @@
         <v>435</v>
       </c>
       <c r="D394" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E394" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F394" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12271,13 +12271,13 @@
         <v>463</v>
       </c>
       <c r="D395" s="34" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="E395" s="34" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="F395" s="35" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.3">
@@ -12289,13 +12289,13 @@
         <v>472</v>
       </c>
       <c r="D396" s="34" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="E396" s="34" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="F396" s="35" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12307,13 +12307,13 @@
         <v>537</v>
       </c>
       <c r="D397" s="34" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="E397" s="34" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="F397" s="35" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.3">
@@ -12325,13 +12325,13 @@
         <v>542</v>
       </c>
       <c r="D398" s="34" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="E398" s="34" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="F398" s="35" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12341,13 +12341,13 @@
         <v>545</v>
       </c>
       <c r="D399" s="34" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="E399" s="34" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="F399" s="35" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.3">
@@ -12359,13 +12359,13 @@
         <v>550</v>
       </c>
       <c r="D400" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E400" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F400" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12375,13 +12375,13 @@
         <v>553</v>
       </c>
       <c r="D401" s="34" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="E401" s="34" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="F401" s="35" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12393,13 +12393,13 @@
         <v>558</v>
       </c>
       <c r="D402" s="34" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="E402" s="34" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="F402" s="35" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.3">
@@ -12409,13 +12409,13 @@
         <v>561</v>
       </c>
       <c r="D403" s="34" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="E403" s="34" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="F403" s="35" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12425,13 +12425,13 @@
         <v>564</v>
       </c>
       <c r="D404" s="34" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="E404" s="34" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="F404" s="35" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.3">
@@ -12443,13 +12443,13 @@
         <v>569</v>
       </c>
       <c r="D405" s="34" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="E405" s="34" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="F405" s="35" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.3">
@@ -12459,13 +12459,13 @@
         <v>572</v>
       </c>
       <c r="D406" s="34" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="E406" s="34" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="F406" s="35" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12475,13 +12475,13 @@
         <v>575</v>
       </c>
       <c r="D407" s="34" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
       <c r="E407" s="34" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="F407" s="35" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12491,13 +12491,13 @@
         <v>578</v>
       </c>
       <c r="D408" s="34" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="E408" s="34" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="F408" s="35" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.3">
@@ -12509,13 +12509,13 @@
         <v>583</v>
       </c>
       <c r="D409" s="34" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="E409" s="34" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="F409" s="35" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12527,13 +12527,13 @@
         <v>588</v>
       </c>
       <c r="D410" s="34" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="E410" s="34" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="F410" s="35" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="42" x14ac:dyDescent="0.3">
@@ -12543,13 +12543,13 @@
         <v>591</v>
       </c>
       <c r="D411" s="34" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="E411" s="34" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="F411" s="35" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.3">
@@ -12559,13 +12559,13 @@
         <v>594</v>
       </c>
       <c r="D412" s="34" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="E412" s="34" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="F412" s="35" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.3">
@@ -12577,13 +12577,13 @@
         <v>599</v>
       </c>
       <c r="D413" s="34" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="E413" s="34" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="F413" s="35" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.3">
@@ -12595,13 +12595,13 @@
         <v>604</v>
       </c>
       <c r="D414" s="34" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="E414" s="34" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="F414" s="35" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.3">
@@ -12611,13 +12611,13 @@
         <v>607</v>
       </c>
       <c r="D415" s="34" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="E415" s="34" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="F415" s="35" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12629,13 +12629,13 @@
         <v>612</v>
       </c>
       <c r="D416" s="34" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="E416" s="34" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="F416" s="35" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.3">
@@ -12645,13 +12645,13 @@
         <v>615</v>
       </c>
       <c r="D417" s="34" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="E417" s="34" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="F417" s="35" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.3">
@@ -12661,13 +12661,13 @@
         <v>630</v>
       </c>
       <c r="D418" s="34" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="E418" s="34" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="F418" s="35" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.3">
@@ -12679,13 +12679,13 @@
         <v>666</v>
       </c>
       <c r="D419" s="34" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
       <c r="E419" s="34" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="F419" s="35" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.3">
@@ -12697,31 +12697,31 @@
         <v>671</v>
       </c>
       <c r="D420" s="34" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E420" s="34" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="F420" s="35" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B421" s="33"/>
       <c r="C421" s="33">
         <v>676</v>
       </c>
       <c r="D421" s="34" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="E421" s="34" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="F421" s="35" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.3">
@@ -12731,13 +12731,13 @@
         <v>689</v>
       </c>
       <c r="D422" s="34" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="E422" s="34" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="F422" s="35" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -12747,29 +12747,29 @@
         <v>692</v>
       </c>
       <c r="D423" s="34" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="E423" s="34" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="F423" s="35" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A424" s="32"/>
       <c r="B424" s="37"/>
       <c r="C424" s="33" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="D424" s="34" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="E424" s="34" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="F424" s="35" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12781,13 +12781,13 @@
         <v>722</v>
       </c>
       <c r="D425" s="34" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="E425" s="34" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="F425" s="35" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.3">
@@ -12797,13 +12797,13 @@
         <v>725</v>
       </c>
       <c r="D426" s="34" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E426" s="34" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="F426" s="35" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12813,29 +12813,29 @@
         <v>728</v>
       </c>
       <c r="D427" s="34" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="E427" s="34" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="F427" s="35" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="32"/>
       <c r="B428" s="37"/>
       <c r="C428" s="33" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="D428" s="34" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="E428" s="34" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="F428" s="35" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.3">
@@ -12847,13 +12847,13 @@
         <v>760</v>
       </c>
       <c r="D429" s="34" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="E429" s="34" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="F429" s="35" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12863,13 +12863,13 @@
         <v>763</v>
       </c>
       <c r="D430" s="34" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="E430" s="34" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="F430" s="35" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -12879,29 +12879,29 @@
         <v>766</v>
       </c>
       <c r="D431" s="34" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="E431" s="34" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="F431" s="35" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="32"/>
       <c r="B432" s="37"/>
       <c r="C432" s="33" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="D432" s="34" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="E432" s="34" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="F432" s="35" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.3">
@@ -12913,13 +12913,13 @@
         <v>795</v>
       </c>
       <c r="D433" s="34" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="E433" s="34" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="F433" s="35" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -12929,31 +12929,31 @@
         <v>798</v>
       </c>
       <c r="D434" s="34" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="E434" s="34" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="F434" s="35" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A435" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B435" s="33"/>
       <c r="C435" s="33">
         <v>803</v>
       </c>
       <c r="D435" s="34" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="E435" s="34" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="F435" s="35" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.3">
@@ -12963,45 +12963,45 @@
         <v>836</v>
       </c>
       <c r="D436" s="34" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="E436" s="34" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="F436" s="35" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="32"/>
       <c r="B437" s="37"/>
       <c r="C437" s="33" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="D437" s="34" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="E437" s="34" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="F437" s="35" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="32"/>
       <c r="B438" s="37"/>
       <c r="C438" s="33" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="D438" s="34" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="E438" s="34" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="F438" s="35" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13013,85 +13013,85 @@
         <v>916</v>
       </c>
       <c r="D439" s="55" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="E439" s="55" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="F439" s="56" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A440" s="64" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="B440" s="65" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="C440" s="29" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="D440" s="30" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="E440" s="30" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F440" s="31" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B441" s="33"/>
       <c r="C441" s="33">
         <v>22</v>
       </c>
       <c r="D441" s="34" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="E441" s="34" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="F441" s="35" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="32"/>
       <c r="B442" s="37"/>
       <c r="C442" s="33" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D442" s="34" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="E442" s="34" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="F442" s="35" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A443" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B443" s="33"/>
       <c r="C443" s="33">
         <v>43</v>
       </c>
       <c r="D443" s="34" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="E443" s="34" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="F443" s="35" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
@@ -13101,13 +13101,13 @@
         <v>46</v>
       </c>
       <c r="D444" s="34" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="E444" s="34" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="F444" s="35" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13117,451 +13117,451 @@
         <v>49</v>
       </c>
       <c r="D445" s="34" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="E445" s="34" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="F445" s="35" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A446" s="32"/>
       <c r="B446" s="37"/>
       <c r="C446" s="33" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="D446" s="34" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="E446" s="34" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="F446" s="35" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A447" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B447" s="33"/>
       <c r="C447" s="33">
         <v>70</v>
       </c>
       <c r="D447" s="34" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="E447" s="34" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="F447" s="35" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="32"/>
       <c r="B448" s="37"/>
       <c r="C448" s="33" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="D448" s="34" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="E448" s="34" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="F448" s="35" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A449" s="32"/>
       <c r="B449" s="37"/>
       <c r="C449" s="33" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="D449" s="34" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="E449" s="34" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="F449" s="35" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A450" s="32"/>
       <c r="B450" s="37"/>
       <c r="C450" s="33" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="D450" s="34" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="E450" s="34" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="F450" s="35" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="32"/>
       <c r="B451" s="37"/>
       <c r="C451" s="33" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="D451" s="34" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="E451" s="34" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="F451" s="35" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="32"/>
       <c r="B452" s="37"/>
       <c r="C452" s="33" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="D452" s="34" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="E452" s="34" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="F452" s="35" t="s">
-        <v>1466</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="38"/>
       <c r="B453" s="16"/>
       <c r="C453" s="17" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="D453" s="18" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="E453" s="18" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="F453" s="39" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A454" s="32"/>
       <c r="B454" s="37" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="C454" s="33" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="D454" s="34" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E454" s="34" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F454" s="35" t="s">
         <v>1468</v>
-      </c>
-      <c r="E454" s="34" t="s">
-        <v>1472</v>
-      </c>
-      <c r="F454" s="35" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A455" s="38"/>
       <c r="B455" s="16"/>
       <c r="C455" s="17" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="D455" s="18" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E455" s="18" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F455" s="39" t="s">
         <v>1469</v>
-      </c>
-      <c r="E455" s="18" t="s">
-        <v>1473</v>
-      </c>
-      <c r="F455" s="39" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A456" s="49"/>
       <c r="B456" s="48" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="C456" s="33" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="D456" s="34" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="E456" s="34" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="F456" s="35" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A457" s="49"/>
       <c r="B457" s="48"/>
       <c r="C457" s="33" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="D457" s="34" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="E457" s="34" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="F457" s="35" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A458" s="49"/>
       <c r="B458" s="48"/>
       <c r="C458" s="33" t="s">
-        <v>1482</v>
+        <v>1476</v>
       </c>
       <c r="D458" s="34" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="E458" s="34" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="F458" s="35" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A459" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B459" s="33"/>
       <c r="C459" s="33">
         <v>45</v>
       </c>
       <c r="D459" s="34" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="E459" s="34" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="F459" s="35" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="49"/>
       <c r="B460" s="48"/>
       <c r="C460" s="33" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="D460" s="34" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="E460" s="34" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="F460" s="35" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="32"/>
       <c r="B461" s="37"/>
       <c r="C461" s="33" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="D461" s="34" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="E461" s="34" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="F461" s="35" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="32"/>
       <c r="B462" s="37"/>
       <c r="C462" s="33" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="D462" s="34" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="E462" s="34" t="s">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="F462" s="35" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="463" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A463" s="32"/>
       <c r="B463" s="37"/>
       <c r="C463" s="33" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="D463" s="34" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="E463" s="34" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="F463" s="35" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="464" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A464" s="32"/>
       <c r="B464" s="37"/>
       <c r="C464" s="33" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="D464" s="34" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="E464" s="34" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="F464" s="35" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="32"/>
       <c r="B465" s="37"/>
       <c r="C465" s="33" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="D465" s="34" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="E465" s="34" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="F465" s="35" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="32"/>
       <c r="B466" s="37"/>
       <c r="C466" s="33" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="D466" s="34" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="E466" s="34" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="F466" s="35" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A467" s="32"/>
       <c r="B467" s="37"/>
       <c r="C467" s="33" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="D467" s="34" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="E467" s="34" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="F467" s="35" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A468" s="32"/>
       <c r="B468" s="37"/>
       <c r="C468" s="33" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="D468" s="34" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="E468" s="34" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="F468" s="35" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="38"/>
       <c r="B469" s="16"/>
       <c r="C469" s="17" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="D469" s="18" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="E469" s="18" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="F469" s="39" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A470" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B470" s="33" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="C470" s="33">
         <v>37</v>
       </c>
       <c r="D470" s="34" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="E470" s="34" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="F470" s="35" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="32"/>
       <c r="B471" s="37"/>
       <c r="C471" s="33" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="D471" s="34" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="E471" s="34" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="F471" s="35" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="32"/>
       <c r="B472" s="37"/>
       <c r="C472" s="33" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="D472" s="34" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="E472" s="34" t="s">
         <v>200</v>
@@ -13574,32 +13574,32 @@
       <c r="A473" s="32"/>
       <c r="B473" s="37"/>
       <c r="C473" s="33" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="D473" s="34" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="E473" s="34" t="s">
-        <v>1545</v>
+        <v>1539</v>
       </c>
       <c r="F473" s="35" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A474" s="38"/>
       <c r="B474" s="16"/>
       <c r="C474" s="17" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="D474" s="18" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="E474" s="18" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="F474" s="39" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -13607,19 +13607,19 @@
         <v>17</v>
       </c>
       <c r="B475" s="33" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="C475" s="33">
         <v>27</v>
       </c>
       <c r="D475" s="34" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="E475" s="34" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="F475" s="35" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.3">
@@ -13629,29 +13629,29 @@
         <v>30</v>
       </c>
       <c r="D476" s="34" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="E476" s="34" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="F476" s="35" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="32"/>
       <c r="B477" s="37"/>
       <c r="C477" s="33" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="D477" s="34" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="E477" s="34" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="F477" s="35" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.3">
@@ -13663,13 +13663,13 @@
         <v>66</v>
       </c>
       <c r="D478" s="34" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="E478" s="34" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="F478" s="35" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.3">
@@ -13679,77 +13679,77 @@
         <v>69</v>
       </c>
       <c r="D479" s="34" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="E479" s="34" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="F479" s="35" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A480" s="32"/>
       <c r="B480" s="37"/>
       <c r="C480" s="33" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="D480" s="34" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="E480" s="34" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="F480" s="35" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A481" s="32"/>
       <c r="B481" s="37"/>
       <c r="C481" s="33" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="D481" s="34" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="E481" s="34" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="F481" s="35" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="32"/>
       <c r="B482" s="37"/>
       <c r="C482" s="33" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="D482" s="34" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="E482" s="34" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="F482" s="35" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="32"/>
       <c r="B483" s="37"/>
       <c r="C483" s="33" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="D483" s="34" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="E483" s="34" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="F483" s="35" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13761,29 +13761,29 @@
         <v>145</v>
       </c>
       <c r="D484" s="34" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="E484" s="34" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="F484" s="35" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A485" s="32"/>
       <c r="B485" s="37"/>
       <c r="C485" s="33" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="D485" s="34" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="E485" s="34" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="F485" s="35" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13795,13 +13795,13 @@
         <v>181</v>
       </c>
       <c r="D486" s="34" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="E486" s="34" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="F486" s="35" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13811,13 +13811,13 @@
         <v>184</v>
       </c>
       <c r="D487" s="34" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="E487" s="34" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="F487" s="35" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -13827,13 +13827,13 @@
         <v>187</v>
       </c>
       <c r="D488" s="34" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="E488" s="34" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="F488" s="35" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13843,13 +13843,13 @@
         <v>190</v>
       </c>
       <c r="D489" s="34" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="E489" s="34" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="F489" s="35" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
@@ -13859,47 +13859,47 @@
         <v>193</v>
       </c>
       <c r="D490" s="34" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="E490" s="34" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="F490" s="35" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A491" s="32"/>
       <c r="B491" s="37"/>
       <c r="C491" s="33" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="D491" s="34" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="E491" s="34" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="F491" s="35" t="s">
-        <v>1607</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="52" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B492" s="33"/>
       <c r="C492" s="33">
         <v>224</v>
       </c>
       <c r="D492" s="34" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="E492" s="34" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="F492" s="35" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13909,13 +13909,13 @@
         <v>227</v>
       </c>
       <c r="D493" s="55" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="E493" s="55" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="F493" s="56" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
     </row>
   </sheetData>
